--- a/Dataset/kecamatan_kabupaten_sumedang.xlsx
+++ b/Dataset/kecamatan_kabupaten_sumedang.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\Pacmann AI\Statistics\5-Sampling\Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CD337-8305-4DAF-8EFF-954145526C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEC5E69-92D1-4AB8-9A4D-A61ED3945DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{86A37A20-6C85-4F24-9DDC-A28E57CE275D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86A37A20-6C85-4F24-9DDC-A28E57CE275D}"/>
   </bookViews>
   <sheets>
-    <sheet name="kecamatan_kabupaten_sumedang" sheetId="1" r:id="rId1"/>
+    <sheet name="list_kecamatan" sheetId="1" r:id="rId1"/>
     <sheet name="luas_kecamatan" sheetId="2" r:id="rId2"/>
     <sheet name="populasi_kecamatan" sheetId="3" r:id="rId3"/>
     <sheet name="density_kecamatan" sheetId="4" r:id="rId4"/>
     <sheet name="proporsi_kelompok_umur" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">kecamatan_kabupaten_sumedang!$A$1:$F$29</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">list_kecamatan!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
   <si>
     <t>Buahdua</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Tomo</t>
-  </si>
-  <si>
-    <t>Ujung Jaya</t>
   </si>
   <si>
     <t>Wado</t>
@@ -584,9 +581,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -953,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176BB7A0-FAE6-4754-B5DF-83B9AA362A70}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,535 +964,511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1511,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC1C56-86B9-4CE9-99AA-A58596E5F716}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,299 +1495,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="2">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1">
+        <v>55.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="2">
-        <v>55.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="2">
-        <v>44.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="1">
+        <v>41.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="2">
-        <v>41.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="2">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="2">
-        <v>55.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1">
+        <v>92.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="2">
-        <v>92.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="2">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="2">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1">
+        <v>65.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="2">
-        <v>65.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="1">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="2">
-        <v>49.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="1">
+        <v>59.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="2">
-        <v>59.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="1">
+        <v>84.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="2">
-        <v>84.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1">
+        <v>72.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="2">
-        <v>72.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="1">
+        <v>106.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="2">
-        <v>106.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="1">
+        <v>84.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="2">
-        <v>84.74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="1">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="2">
-        <v>86.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1">
+        <v>106.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="2">
-        <v>106.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="1">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="2">
-        <v>31.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="2">
-        <v>43.29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="1">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="2">
-        <v>17.71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="1">
+        <v>43.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="2">
-        <v>43.72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="1">
+        <v>60.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="2">
-        <v>60.67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="1">
+        <v>107.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="2">
-        <v>107.68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>70.88</v>
       </c>
     </row>
@@ -1828,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF38B6B-63CE-4B62-B71D-6DF4966094A1}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -1841,380 +1813,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1">
+        <v>98000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-14.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>88200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>86500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32600</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>62700</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>39900</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>78900</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1">
+        <v>99000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25400</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41700</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C13" s="1">
+        <v>35800</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-5.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21900</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-9.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>23000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2">
-        <v>98000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-14.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>88.2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>88200</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2">
-        <v>86.5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>86500</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>32.6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>32600</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>62.7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>62700</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>39.9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>39900</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="C8" s="2">
-        <v>78900</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2">
-        <v>99000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>25.4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>25400</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>41.7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>41700</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>30.1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="C13" s="2">
-        <v>35800</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-5.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2">
-        <v>24000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43.6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>43600</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-1.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45.2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2">
-        <v>21.9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>21900</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-9.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2">
-        <v>23000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>31.2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>31200</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>28.2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>28200</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>-3.03</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>37.6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>37600</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1.79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>62.4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>62400</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>20.3</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>20300</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>4.84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>33.799999999999997</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>33800</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>-3.03</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>25.9</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>25900</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>3.76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>31.9</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>31900</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>-2.5499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>11.5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>11500</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -2239,299 +2211,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>3740</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.61</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>7.46</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2429</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.81</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5.41</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3.45</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6.8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8.5399999999999991</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>3503</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2.19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1191</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>3.6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>2.59</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>3.09</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
         <v>3.76</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>3.89</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1.89</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1.98</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="1">
         <v>2.69</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>3.24</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1093</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>5.38</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1.75</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>1075</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2.92</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2.75</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.99</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>226</v>
       </c>
     </row>
@@ -2544,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2481E9-70C7-499E-AF96-4635FD085156}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2557,240 +2529,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>42834</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40513</v>
+      </c>
+      <c r="D2" s="1">
+        <v>83347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41945</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40161</v>
+      </c>
+      <c r="D3" s="1">
+        <v>82106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44831</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42379</v>
+      </c>
+      <c r="D4" s="1">
+        <v>87210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="2">
-        <v>42834</v>
-      </c>
-      <c r="C2" s="2">
-        <v>40513</v>
-      </c>
-      <c r="D2" s="2">
-        <v>83347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="2">
-        <v>41945</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40161</v>
-      </c>
-      <c r="D3" s="2">
-        <v>82106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44831</v>
-      </c>
-      <c r="C4" s="2">
-        <v>42379</v>
-      </c>
-      <c r="D4" s="2">
-        <v>87210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>50052</v>
+      </c>
+      <c r="C5" s="1">
+        <v>46109</v>
+      </c>
+      <c r="D5" s="1">
+        <v>96161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="2">
-        <v>50052</v>
-      </c>
-      <c r="C5" s="2">
-        <v>46109</v>
-      </c>
-      <c r="D5" s="2">
-        <v>96161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1">
+        <v>47394</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43494</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="2">
-        <v>47394</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43494</v>
-      </c>
-      <c r="D6" s="2">
-        <v>90888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1">
+        <v>46015</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43242</v>
+      </c>
+      <c r="D7" s="1">
+        <v>89257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="2">
-        <v>46015</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43242</v>
-      </c>
-      <c r="D7" s="2">
-        <v>89257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>40912</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39775</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="2">
-        <v>40912</v>
-      </c>
-      <c r="C8" s="2">
-        <v>39775</v>
-      </c>
-      <c r="D8" s="2">
-        <v>80687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>41284</v>
+      </c>
+      <c r="C9" s="1">
+        <v>39849</v>
+      </c>
+      <c r="D9" s="1">
+        <v>81133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="2">
-        <v>41284</v>
-      </c>
-      <c r="C9" s="2">
-        <v>39849</v>
-      </c>
-      <c r="D9" s="2">
-        <v>81133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="1">
+        <v>38763</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38657</v>
+      </c>
+      <c r="D10" s="1">
+        <v>77420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="2">
-        <v>38763</v>
-      </c>
-      <c r="C10" s="2">
-        <v>38657</v>
-      </c>
-      <c r="D10" s="2">
-        <v>77420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>37167</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38955</v>
+      </c>
+      <c r="D11" s="1">
+        <v>76122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="2">
-        <v>37167</v>
-      </c>
-      <c r="C11" s="2">
-        <v>38955</v>
-      </c>
-      <c r="D11" s="2">
-        <v>76122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="1">
+        <v>37737</v>
+      </c>
+      <c r="C12" s="1">
+        <v>39564</v>
+      </c>
+      <c r="D12" s="1">
+        <v>77301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="2">
-        <v>37737</v>
-      </c>
-      <c r="C12" s="2">
-        <v>39564</v>
-      </c>
-      <c r="D12" s="2">
-        <v>77301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1">
+        <v>35373</v>
+      </c>
+      <c r="C13" s="1">
+        <v>36643</v>
+      </c>
+      <c r="D13" s="1">
+        <v>72016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="2">
-        <v>35373</v>
-      </c>
-      <c r="C13" s="2">
-        <v>36643</v>
-      </c>
-      <c r="D13" s="2">
-        <v>72016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="1">
+        <v>29659</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30655</v>
+      </c>
+      <c r="D14" s="1">
+        <v>60314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="2">
-        <v>29659</v>
-      </c>
-      <c r="C14" s="2">
-        <v>30655</v>
-      </c>
-      <c r="D14" s="2">
-        <v>60314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="1">
+        <v>24917</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26088</v>
+      </c>
+      <c r="D15" s="1">
+        <v>51005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="2">
-        <v>24917</v>
-      </c>
-      <c r="C15" s="2">
-        <v>26088</v>
-      </c>
-      <c r="D15" s="2">
-        <v>51005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="1">
+        <v>17489</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17760</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="2">
-        <v>17489</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17760</v>
-      </c>
-      <c r="D16" s="2">
-        <v>35249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>8879</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>10251</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>19130</v>
       </c>
     </row>
